--- a/test-output/XL/output.xlsx
+++ b/test-output/XL/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="19">
   <si>
     <t>cnt</t>
   </si>
@@ -71,6 +71,18 @@
   </si>
   <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>WAVE Report of Google</t>
+  </si>
+  <si>
+    <t>Missing alternative text</t>
+  </si>
+  <si>
+    <t>Linked image missing alternative text</t>
   </si>
 </sst>
 </file>
@@ -1014,7 +1026,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
@@ -1319,6 +1331,342 @@
         <v>17</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
   <headerFooter/>
